--- a/020-内部_プログラミング設計/022-クラス仕様書/Utilのクラス仕様書(HashUtil).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/Utilのクラス仕様書(HashUtil).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BA741E-2D89-4E69-BBCF-04E2318B6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827BF678-79CE-4994-B717-9D2E0BA76E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -871,71 +871,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -977,6 +917,66 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:AC6"/>
     </sheetView>
   </sheetViews>
@@ -1334,83 +1334,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="53">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1610,78 +1610,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="55" t="str">
         <f>G5</f>
         <v>HashUtil</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1944,952 +1944,937 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="38" t="s">
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="52"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="52"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37" t="s">
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37" t="s">
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37" t="s">
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="51"/>
+      <c r="BA8" s="51"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41" t="s">
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="37"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="37"/>
-      <c r="BH13" s="37"/>
-      <c r="BI13" s="37"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="50"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="41"/>
-      <c r="BI16" s="41"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="41"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="41"/>
-      <c r="BI17" s="41"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="41"/>
-      <c r="BI18" s="41"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-      <c r="BE19" s="41"/>
-      <c r="BF19" s="41"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="41"/>
-      <c r="BI19" s="41"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -2906,14 +2891,29 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2937,86 +2937,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35">
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="55">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="53">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3216,78 +3216,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="55" t="str">
         <f>クラス仕様!G5</f>
         <v>HashUtil</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="44"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="66"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3550,69 +3550,69 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3812,69 +3812,69 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4334,75 +4334,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48" t="s">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4602,69 +4602,69 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="46"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="47"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="63"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4864,69 +4864,69 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="59"/>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -5126,73 +5126,73 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41" t="s">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5392,73 +5392,73 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50" t="s">
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -5918,73 +5918,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48" t="s">
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="60"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="60"/>
+      <c r="BE13" s="60"/>
+      <c r="BF13" s="60"/>
+      <c r="BG13" s="60"/>
+      <c r="BH13" s="60"/>
+      <c r="BI13" s="60"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -13936,29 +13936,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -13975,11 +13957,29 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -14011,86 +14011,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35">
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="55">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="53">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -14290,78 +14290,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="55" t="str">
         <f>クラス仕様!G5</f>
         <v>HashUtil</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="44"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="66"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -14624,71 +14624,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -14888,71 +14888,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -15412,75 +15412,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48" t="s">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -15680,75 +15680,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="45" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="45" t="s">
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="46"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="47"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="63"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -15948,75 +15948,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="59"/>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -16216,73 +16216,73 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41" t="s">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -16482,73 +16482,73 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50" t="s">
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -17008,73 +17008,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48" t="s">
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="60"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="60"/>
+      <c r="BE13" s="60"/>
+      <c r="BF13" s="60"/>
+      <c r="BG13" s="60"/>
+      <c r="BH13" s="60"/>
+      <c r="BI13" s="60"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -17289,10 +17289,10 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="52"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -25044,30 +25044,10 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="P7:AD7"/>
@@ -25084,10 +25064,30 @@
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
@@ -25109,7 +25109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A0B82-3524-4F7F-A9ED-8505EB94974D}">
   <dimension ref="A1:IX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -25119,86 +25119,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35">
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="55">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="53">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -25398,78 +25398,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="55" t="str">
         <f>クラス仕様!G5</f>
         <v>HashUtil</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="44"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="66"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -25732,71 +25732,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -25996,71 +25996,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -26520,75 +26520,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48" t="s">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -26788,75 +26788,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="45" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="45" t="s">
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="46"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="47"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="63"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -27056,75 +27056,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="53" t="s">
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="53" t="s">
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="55"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="68"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="68"/>
+      <c r="AU9" s="68"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="68"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="68"/>
+      <c r="BD9" s="68"/>
+      <c r="BE9" s="68"/>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="68"/>
+      <c r="BH9" s="68"/>
+      <c r="BI9" s="69"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -27324,75 +27324,75 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50" t="s">
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -27592,73 +27592,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -27858,73 +27852,67 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -28384,73 +28372,73 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48" t="s">
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="48"/>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="60"/>
+      <c r="BF14" s="60"/>
+      <c r="BG14" s="60"/>
+      <c r="BH14" s="60"/>
+      <c r="BI14" s="60"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -28665,38 +28653,38 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="59"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="39"/>
       <c r="AT15" s="5"/>
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
@@ -28927,38 +28915,38 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="61"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="61"/>
-      <c r="AO16" s="61"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="62"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="42"/>
       <c r="AT16" s="11"/>
       <c r="AU16" s="13"/>
       <c r="AV16" s="13"/>
@@ -29188,36 +29176,36 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="62"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="42"/>
       <c r="AT17" s="11"/>
       <c r="AU17" s="12"/>
       <c r="AV17" s="13"/>
@@ -29447,36 +29435,36 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="62"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="42"/>
       <c r="AT18" s="11"/>
       <c r="AU18" s="12"/>
       <c r="AV18" s="13"/>
@@ -29706,36 +29694,36 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="62"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="42"/>
       <c r="AT19" s="11"/>
       <c r="AU19" s="12"/>
       <c r="AV19" s="13"/>
@@ -29965,36 +29953,36 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="61"/>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="62"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="42"/>
       <c r="AT20" s="11"/>
       <c r="AU20" s="12"/>
       <c r="AV20" s="13"/>
@@ -30224,36 +30212,36 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="62"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="42"/>
       <c r="AT21" s="11"/>
       <c r="AU21" s="12"/>
       <c r="AV21" s="13"/>
@@ -30483,36 +30471,36 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="62"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="42"/>
       <c r="AT22" s="11"/>
       <c r="AU22" s="12"/>
       <c r="AV22" s="13"/>
@@ -30742,36 +30730,36 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="61"/>
-      <c r="AN23" s="61"/>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="61"/>
-      <c r="AS23" s="62"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="42"/>
       <c r="AT23" s="11"/>
       <c r="AU23" s="12"/>
       <c r="AV23" s="13"/>
@@ -31002,36 +30990,36 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="61"/>
-      <c r="AS24" s="62"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="42"/>
       <c r="AT24" s="11"/>
       <c r="AU24" s="13"/>
       <c r="AV24" s="13"/>
@@ -31262,36 +31250,36 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="61"/>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="61"/>
-      <c r="AS25" s="62"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="42"/>
       <c r="AT25" s="11"/>
       <c r="AU25" s="13"/>
       <c r="AV25" s="13"/>
@@ -31522,36 +31510,36 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="61"/>
-      <c r="AS26" s="62"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="42"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="13"/>
@@ -31782,36 +31770,36 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="61"/>
-      <c r="AS27" s="62"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="42"/>
       <c r="AT27" s="11"/>
       <c r="AU27" s="13"/>
       <c r="AV27" s="13"/>
@@ -32042,36 +32030,36 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="61"/>
-      <c r="AS28" s="62"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="42"/>
       <c r="AT28" s="11"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="13"/>
@@ -32302,36 +32290,36 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="61"/>
-      <c r="AG29" s="61"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="61"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="61"/>
-      <c r="AN29" s="61"/>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="61"/>
-      <c r="AR29" s="61"/>
-      <c r="AS29" s="62"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="41"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="41"/>
+      <c r="AS29" s="42"/>
       <c r="AT29" s="11"/>
       <c r="AU29" s="13"/>
       <c r="AV29" s="13"/>
@@ -32562,36 +32550,36 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="61"/>
-      <c r="AG30" s="61"/>
-      <c r="AH30" s="61"/>
-      <c r="AI30" s="61"/>
-      <c r="AJ30" s="61"/>
-      <c r="AK30" s="61"/>
-      <c r="AL30" s="61"/>
-      <c r="AM30" s="61"/>
-      <c r="AN30" s="61"/>
-      <c r="AO30" s="61"/>
-      <c r="AP30" s="61"/>
-      <c r="AQ30" s="61"/>
-      <c r="AR30" s="61"/>
-      <c r="AS30" s="62"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="41"/>
+      <c r="AS30" s="42"/>
       <c r="AT30" s="11"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="13"/>
@@ -32822,36 +32810,36 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="61"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="61"/>
-      <c r="AM31" s="61"/>
-      <c r="AN31" s="61"/>
-      <c r="AO31" s="61"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="61"/>
-      <c r="AR31" s="61"/>
-      <c r="AS31" s="62"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="42"/>
       <c r="AT31" s="11"/>
       <c r="AU31" s="13"/>
       <c r="AV31" s="13"/>
@@ -33082,36 +33070,36 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="61"/>
-      <c r="AD32" s="61"/>
-      <c r="AE32" s="61"/>
-      <c r="AF32" s="61"/>
-      <c r="AG32" s="61"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="61"/>
-      <c r="AL32" s="61"/>
-      <c r="AM32" s="61"/>
-      <c r="AN32" s="61"/>
-      <c r="AO32" s="61"/>
-      <c r="AP32" s="61"/>
-      <c r="AQ32" s="61"/>
-      <c r="AR32" s="61"/>
-      <c r="AS32" s="62"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="42"/>
       <c r="AT32" s="11"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
@@ -33342,36 +33330,36 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="61"/>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="61"/>
-      <c r="AK33" s="61"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="61"/>
-      <c r="AN33" s="61"/>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="61"/>
-      <c r="AR33" s="61"/>
-      <c r="AS33" s="62"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="42"/>
       <c r="AT33" s="11"/>
       <c r="AU33" s="13"/>
       <c r="AV33" s="13"/>
@@ -33602,36 +33590,36 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="61"/>
-      <c r="AC34" s="61"/>
-      <c r="AD34" s="61"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="61"/>
-      <c r="AG34" s="61"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="61"/>
-      <c r="AJ34" s="61"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="61"/>
-      <c r="AN34" s="61"/>
-      <c r="AO34" s="61"/>
-      <c r="AP34" s="61"/>
-      <c r="AQ34" s="61"/>
-      <c r="AR34" s="61"/>
-      <c r="AS34" s="62"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="41"/>
+      <c r="AO34" s="41"/>
+      <c r="AP34" s="41"/>
+      <c r="AQ34" s="41"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="42"/>
       <c r="AT34" s="11"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
@@ -33862,36 +33850,36 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="61"/>
-      <c r="AG35" s="61"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="61"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="61"/>
-      <c r="AN35" s="61"/>
-      <c r="AO35" s="61"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="61"/>
-      <c r="AR35" s="61"/>
-      <c r="AS35" s="62"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="42"/>
       <c r="AT35" s="11"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
@@ -34122,36 +34110,36 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="61"/>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="61"/>
-      <c r="AL36" s="61"/>
-      <c r="AM36" s="61"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="61"/>
-      <c r="AP36" s="61"/>
-      <c r="AQ36" s="61"/>
-      <c r="AR36" s="61"/>
-      <c r="AS36" s="62"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="42"/>
       <c r="AT36" s="11"/>
       <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
@@ -34382,36 +34370,36 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="61"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="61"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="61"/>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="61"/>
-      <c r="AF37" s="61"/>
-      <c r="AG37" s="61"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="61"/>
-      <c r="AJ37" s="61"/>
-      <c r="AK37" s="61"/>
-      <c r="AL37" s="61"/>
-      <c r="AM37" s="61"/>
-      <c r="AN37" s="61"/>
-      <c r="AO37" s="61"/>
-      <c r="AP37" s="61"/>
-      <c r="AQ37" s="61"/>
-      <c r="AR37" s="61"/>
-      <c r="AS37" s="62"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="42"/>
       <c r="AT37" s="11"/>
       <c r="AU37" s="13"/>
       <c r="AV37" s="13"/>
@@ -34636,36 +34624,36 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="61"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="61"/>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="61"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="61"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="61"/>
-      <c r="AS38" s="62"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="41"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="42"/>
       <c r="AT38" s="11"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="12"/>
@@ -34896,36 +34884,36 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61"/>
-      <c r="AF39" s="61"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="61"/>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="61"/>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="61"/>
-      <c r="AR39" s="61"/>
-      <c r="AS39" s="62"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="42"/>
       <c r="AT39" s="11"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="13"/>
@@ -35156,36 +35144,36 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="14"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="61"/>
-      <c r="AA40" s="61"/>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
-      <c r="AE40" s="61"/>
-      <c r="AF40" s="61"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="61"/>
-      <c r="AL40" s="61"/>
-      <c r="AM40" s="61"/>
-      <c r="AN40" s="61"/>
-      <c r="AO40" s="61"/>
-      <c r="AP40" s="61"/>
-      <c r="AQ40" s="61"/>
-      <c r="AR40" s="61"/>
-      <c r="AS40" s="62"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="41"/>
+      <c r="AN40" s="41"/>
+      <c r="AO40" s="41"/>
+      <c r="AP40" s="41"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="42"/>
       <c r="AT40" s="11"/>
       <c r="AU40" s="13"/>
       <c r="AV40" s="13"/>
@@ -35416,36 +35404,36 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="14"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61"/>
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="61"/>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="61"/>
-      <c r="AE41" s="61"/>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="61"/>
-      <c r="AI41" s="61"/>
-      <c r="AJ41" s="61"/>
-      <c r="AK41" s="61"/>
-      <c r="AL41" s="61"/>
-      <c r="AM41" s="61"/>
-      <c r="AN41" s="61"/>
-      <c r="AO41" s="61"/>
-      <c r="AP41" s="61"/>
-      <c r="AQ41" s="61"/>
-      <c r="AR41" s="61"/>
-      <c r="AS41" s="62"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41"/>
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41"/>
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="42"/>
       <c r="AT41" s="11"/>
       <c r="AU41" s="13"/>
       <c r="AV41" s="13"/>
@@ -35676,36 +35664,36 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="14"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="61"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="61"/>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="61"/>
-      <c r="AK42" s="61"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="61"/>
-      <c r="AN42" s="61"/>
-      <c r="AO42" s="61"/>
-      <c r="AP42" s="61"/>
-      <c r="AQ42" s="61"/>
-      <c r="AR42" s="61"/>
-      <c r="AS42" s="62"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="41"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="42"/>
       <c r="AT42" s="11"/>
       <c r="AU42" s="13"/>
       <c r="AV42" s="13"/>
@@ -35936,36 +35924,36 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="23"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="68"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="47"/>
+      <c r="AJ43" s="47"/>
+      <c r="AK43" s="47"/>
+      <c r="AL43" s="47"/>
+      <c r="AM43" s="47"/>
+      <c r="AN43" s="47"/>
+      <c r="AO43" s="47"/>
+      <c r="AP43" s="47"/>
+      <c r="AQ43" s="47"/>
+      <c r="AR43" s="47"/>
+      <c r="AS43" s="48"/>
       <c r="AT43" s="21"/>
       <c r="AU43" s="22"/>
       <c r="AV43" s="27"/>
@@ -36442,34 +36430,10 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:BI12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="P7:AD7"/>
@@ -36486,10 +36450,34 @@
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:BI12"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
@@ -36514,15 +36502,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -36654,6 +36633,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
   <ds:schemaRefs>
@@ -36664,14 +36652,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36687,4 +36667,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>